--- a/data/trans_camb/P36_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,76</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 5,05</t>
+          <t>-2,48; 4,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,41</t>
+          <t>-2,08; 5,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 2,46</t>
+          <t>-3,06; 2,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,15</t>
+          <t>3,88; 17,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,07</t>
+          <t>-4,25; 11,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 7,78</t>
+          <t>-1,44; 2,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,0</t>
+          <t>1,45; 9,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,6</t>
+          <t>-0,67; 4,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,74</t>
+          <t>-0,31; 9,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 7,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 3,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 5,5</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 2,61</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 11,24</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 7,29</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,13%</t>
+          <t>77,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-31,15%</t>
+          <t>-36,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>154,53%</t>
+          <t>939,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>765,1%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>465,89%</t>
+          <t>116,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>103,62%</t>
+          <t>666,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>278,45%</t>
+          <t>255,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>108,05%</t>
+          <t>171,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>85,89%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>254,37%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>52,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>391,18%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>39,32%</t>
         </is>
       </c>
     </row>
@@ -811,7 +949,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,25; 374,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +959,47 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,5; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 1371,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,15; 1106,42</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-64,5; 310,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-68,13; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,0; 1364,42</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>65,7; 1573,4</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-32,34; 186,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 2,09</t>
+          <t>-13,53; 1,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 2,22</t>
+          <t>-12,3; 2,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 3,34</t>
+          <t>-10,13; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,24</t>
+          <t>-2,49; 9,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,72</t>
+          <t>-2,39; 9,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,61</t>
+          <t>-3,56; 3,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,8</t>
+          <t>-4,43; 2,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,7</t>
+          <t>-2,99; 4,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,92</t>
+          <t>-3,67; 5,63</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 4,58</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 1,79</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 1,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 3,5</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 6,07</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 5,67</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-40,32%</t>
+          <t>-51,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-44,48%</t>
+          <t>-49,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,77%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>113,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,24%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,83%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-31,14%</t>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-11,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-26,2%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-30,39%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>57,45%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>50,76%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +1275,67 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-90,01; 603,91</t>
+          <t>-51,78; 526,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 415,17</t>
+          <t>-61,62; 996,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,72; 618,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-86,29; 176,08</t>
+          <t>-100,0; 576,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,03; 214,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,17; 286,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-82,65; 287,46</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-87,36; 171,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-85,64; 160,37</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-82,9; 297,04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-39,37; 318,7</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-48,29; 252,3</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 1,04</t>
+          <t>-6,15; 1,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 1,57</t>
+          <t>-6,08; 1,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 2,91</t>
+          <t>-3,51; 4,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,86</t>
+          <t>-1,8; 7,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,92</t>
+          <t>-1,79; 7,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,33</t>
+          <t>-1,27; 2,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,3</t>
+          <t>-1,5; 1,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,13</t>
+          <t>-1,13; 3,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,71</t>
+          <t>0,09; 7,21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 6,69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 1,09</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 1,08</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 3,22</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 6,13</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 5,85</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,65%</t>
+          <t>-45,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,91%</t>
+          <t>-36,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>45,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80,6%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>61,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>136,92%</t>
+          <t>60,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,97%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,66%</t>
+          <t>111,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>148,38%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>102,68%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-16,67%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-20,09%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>63,73%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>89,48%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>77,11%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 92,43</t>
+          <t>-93,78; 175,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-94,62; 171,55</t>
+          <t>-92,83; 183,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,28; 275,21</t>
+          <t>-72,2; 401,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,39; 271,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 583,07</t>
+          <t>-34,25; 292,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,53; —</t>
+          <t>-71,94; 660,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 127,17</t>
+          <t>-84,86; 649,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,04; 124,73</t>
+          <t>-71,64; 810,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 336,38</t>
+          <t>-15,44; 564,73</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-38,96; 522,43</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-75,04; 99,3</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-79,34; 119,66</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-43,63; 316,01</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 279,19</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 250,73</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,73</t>
+          <t>-3,23; 3,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,54</t>
+          <t>-3,89; 1,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,15</t>
+          <t>-2,24; 3,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,49</t>
+          <t>2,01; 12,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,86</t>
+          <t>-5,39; 7,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,13</t>
+          <t>-1,58; 1,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,34</t>
+          <t>-1,75; 0,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,74</t>
+          <t>-1,88; 1,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,9</t>
+          <t>0,57; 6,45</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 4,25</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 1,77</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 0,68</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 2,1</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 8,33</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 5,06</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-28,03%</t>
+          <t>-34,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>178,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-29,9%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-28,16%</t>
+          <t>-12,08%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>345,16%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>33,24%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-33,73%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>218,11%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>23,99%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,67; 330,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,4; 128,6</t>
+          <t>-84,7; 118,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,82; 289,44</t>
+          <t>-56,08; 268,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,0; 574,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,43; 155,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1292,04</t>
+          <t>-100,0; 656,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 237,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,06; 82,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,6; 242,65</t>
+          <t>-5,95; 2090,86</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-60,78; 268,68</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-63,43; 152,03</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-76,22; 79,38</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-55,28; 184,59</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>64,62; 541,55</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-37,2; 121,45</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
           <t>0,41</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,03</t>
+          <t>-1,23; 2,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,56</t>
+          <t>-0,95; 3,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,27</t>
+          <t>-1,09; 4,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,1</t>
+          <t>1,4; 10,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,26</t>
+          <t>0,18; 9,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,06</t>
+          <t>-1,95; 2,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,92</t>
+          <t>-1,62; 2,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,39</t>
+          <t>0,19; 6,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,58</t>
+          <t>-1,47; 7,58</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 9,91</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 1,97</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 2,31</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 4,35</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 7,7</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 8,37</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,73%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>217,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>155,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>72,15%</t>
+          <t>295,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>80,6%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>246,32%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>44,31%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>71,57%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>178,82%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>131,93%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>193,57%</t>
         </is>
       </c>
     </row>
@@ -1655,12 +2273,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-79,82; 1001,49</t>
+          <t>-65,01; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-59,62; 814,6</t>
+          <t>-61,53; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +2288,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,37; 1006,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,8; 657,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,17 +2303,47 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-56,91; 434,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 551,76</t>
+          <t>-56,64; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-86,86; 429,74</t>
+          <t>-31,94; 409,02</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 1298,7</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-63,31; 428,22</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-46,21; 463,95</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 914,92</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 391,03</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>39,84; 584,6</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
+          <t>5,3</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,0</t>
+          <t>-2,77; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,0</t>
+          <t>-1,13; 1,86</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,62</t>
+          <t>1,41; 9,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,41; 10,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,0</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,0</t>
+          <t>-0,53; 4,9</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 6,07</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 1,48</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 0,0</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 2,3</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 5,66</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 6,07</t>
         </is>
       </c>
     </row>
@@ -1828,37 +2536,67 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>765,01%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>266,91%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>55,96%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>187,02%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>461,46%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>77,06%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1914,6 +2652,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>1,18; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,97</t>
+          <t>-2,03; 0,82</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,87</t>
+          <t>-2,21; 0,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,11</t>
+          <t>-1,15; 2,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,43</t>
+          <t>2,98; 7,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,62</t>
+          <t>1,15; 6,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,75</t>
+          <t>-0,36; 1,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,89</t>
+          <t>-0,17; 1,58</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,99</t>
+          <t>0,1; 2,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,06</t>
+          <t>1,3; 4,23</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 3,88</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 0,82</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 0,91</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 1,77</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 5,34</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 4,42</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-13,82%</t>
+          <t>-19,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-12,57%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>59,43%</t>
+          <t>181,99%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>79,79%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>71,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>110,06%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>131,94%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>83,36%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>50,77%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>161,98%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>81,43%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 72,7</t>
+          <t>-60,29; 60,81</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-62,04; 69,05</t>
+          <t>-65,55; 49,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 81,43</t>
+          <t>-38,97; 130,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 248,65</t>
+          <t>73,95; 337,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 250,09</t>
+          <t>15,4; 195,18</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 287,66</t>
+          <t>-29,67; 239,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 81,87</t>
+          <t>-15,54; 265,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 90,08</t>
+          <t>-8,89; 326,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 94,37</t>
+          <t>44,09; 280,93</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 197,44</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-38,47; 71,47</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-34,15; 78,58</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 150,95</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>93,68; 263,89</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>31,2; 148,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
